--- a/analysis/xlsx/2022/2022_성별_매출.xlsx
+++ b/analysis/xlsx/2022/2022_성별_매출.xlsx
@@ -477,15 +477,15 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1256791000</v>
+        <v>1355596000</v>
       </c>
       <c r="D2" t="n">
-        <v>1708136333.333374</v>
+        <v>1846673333.333374</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2022년도 남 - 공급가액: 1256791000.0, 예측 공급가액: 1708136333.333374
-2022년도 여 - 공급가액: 1353443200.0, 예측 공급가액: 1849513133.333374</t>
+          <t>2022년도 남 - 공급가액: 1355596000.0, 예측 공급가액: 1846673333.333374
+2022년도 여 - 공급가액: 1254638200.0, 예측 공급가액: 1710976133.333374</t>
         </is>
       </c>
     </row>
@@ -499,10 +499,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1353443200</v>
+        <v>1254638200</v>
       </c>
       <c r="D3" t="n">
-        <v>1849513133.333374</v>
+        <v>1710976133.333374</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
